--- a/output/df_con_thermal.xlsx
+++ b/output/df_con_thermal.xlsx
@@ -14,15 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+  <si>
+    <t>net1</t>
+  </si>
+  <si>
+    <t>net2</t>
+  </si>
+  <si>
+    <t>CHP1</t>
+  </si>
+  <si>
+    <t>CHP2</t>
+  </si>
   <si>
     <t>demand1</t>
   </si>
   <si>
-    <t>net1</t>
-  </si>
-  <si>
-    <t>CHP1</t>
+    <t>demand2</t>
   </si>
 </sst>
 </file>
@@ -380,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,10 +405,13 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -410,32 +422,58 @@
       <c r="D2">
         <v>0</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>0</v>
       </c>
     </row>

--- a/output/df_con_thermal.xlsx
+++ b/output/df_con_thermal.xlsx
@@ -14,24 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>net1</t>
-  </si>
-  <si>
-    <t>net2</t>
   </si>
   <si>
     <t>CHP1</t>
   </si>
   <si>
-    <t>CHP2</t>
-  </si>
-  <si>
     <t>demand1</t>
-  </si>
-  <si>
-    <t>demand2</t>
   </si>
 </sst>
 </file>
@@ -389,91 +380,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
         <v>0</v>
       </c>
     </row>

--- a/output/df_con_thermal.xlsx
+++ b/output/df_con_thermal.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>net1</t>
   </si>
   <si>
     <t>CHP1</t>
+  </si>
+  <si>
+    <t>solar_th1</t>
+  </si>
+  <si>
+    <t>pvt1</t>
   </si>
   <si>
     <t>demand1</t>
@@ -380,23 +386,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -404,8 +416,14 @@
       <c r="C2">
         <v>0</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,6 +431,12 @@
         <v>0</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
     </row>

--- a/output/df_con_thermal.xlsx
+++ b/output/df_con_thermal.xlsx
@@ -14,21 +14,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>net1</t>
-  </si>
-  <si>
-    <t>CHP1</t>
-  </si>
-  <si>
-    <t>solar_th1</t>
-  </si>
-  <si>
-    <t>pvt1</t>
-  </si>
-  <si>
-    <t>demand1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Q_from_net1</t>
+  </si>
+  <si>
+    <t>Q_from_CHP1</t>
+  </si>
+  <si>
+    <t>Q_from_solar_th1</t>
+  </si>
+  <si>
+    <t>Q_from_pvt1</t>
+  </si>
+  <si>
+    <t>Q_to_demand1</t>
+  </si>
+  <si>
+    <t>Q_to_net1</t>
+  </si>
+  <si>
+    <t>Q_net1_demand1</t>
+  </si>
+  <si>
+    <t>Q_CHP1_demand1</t>
+  </si>
+  <si>
+    <t>Q_CHP1_net1</t>
+  </si>
+  <si>
+    <t>Q_solar_th1_demand1</t>
+  </si>
+  <si>
+    <t>Q_solar_th1_net1</t>
+  </si>
+  <si>
+    <t>Q_pvt1_demand1</t>
+  </si>
+  <si>
+    <t>Q_pvt1_net1</t>
   </si>
 </sst>
 </file>
@@ -410,34 +434,34 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_con_thermal.xlsx
+++ b/output/df_con_thermal.xlsx
@@ -14,18 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Q_from_net1</t>
-  </si>
-  <si>
-    <t>Q_from_CHP1</t>
-  </si>
-  <si>
-    <t>Q_from_solar_th1</t>
-  </si>
-  <si>
-    <t>Q_from_pvt1</t>
   </si>
   <si>
     <t>Q_to_demand1</t>
@@ -35,24 +26,6 @@
   </si>
   <si>
     <t>Q_net1_demand1</t>
-  </si>
-  <si>
-    <t>Q_CHP1_demand1</t>
-  </si>
-  <si>
-    <t>Q_CHP1_net1</t>
-  </si>
-  <si>
-    <t>Q_solar_th1_demand1</t>
-  </si>
-  <si>
-    <t>Q_solar_th1_net1</t>
-  </si>
-  <si>
-    <t>Q_pvt1_demand1</t>
-  </si>
-  <si>
-    <t>Q_pvt1_net1</t>
   </si>
 </sst>
 </file>
@@ -410,58 +383,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_con_thermal.xlsx
+++ b/output/df_con_thermal.xlsx
@@ -14,11 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Q_from_net1</t>
   </si>
   <si>
+    <t>Q_from_CHP1</t>
+  </si>
+  <si>
+    <t>Q_from_solar_th1</t>
+  </si>
+  <si>
+    <t>Q_from_pvt1</t>
+  </si>
+  <si>
     <t>Q_to_demand1</t>
   </si>
   <si>
@@ -26,6 +35,24 @@
   </si>
   <si>
     <t>Q_net1_demand1</t>
+  </si>
+  <si>
+    <t>Q_CHP1_demand1</t>
+  </si>
+  <si>
+    <t>Q_CHP1_net1</t>
+  </si>
+  <si>
+    <t>Q_solar_th1_demand1</t>
+  </si>
+  <si>
+    <t>Q_solar_th1_net1</t>
+  </si>
+  <si>
+    <t>Q_pvt1_demand1</t>
+  </si>
+  <si>
+    <t>Q_pvt1_net1</t>
   </si>
 </sst>
 </file>
@@ -383,31 +410,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_con_thermal.xlsx
+++ b/output/df_con_thermal.xlsx
@@ -14,45 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Q_from_net1</t>
   </si>
   <si>
-    <t>Q_from_CHP1</t>
-  </si>
-  <si>
-    <t>Q_from_solar_th1</t>
-  </si>
-  <si>
     <t>Q_from_pvt1</t>
   </si>
   <si>
+    <t>Q_from_heat_pump1</t>
+  </si>
+  <si>
     <t>Q_to_demand1</t>
   </si>
   <si>
     <t>Q_to_net1</t>
   </si>
   <si>
+    <t>Q_to_heat_pump1</t>
+  </si>
+  <si>
     <t>Q_net1_demand1</t>
   </si>
   <si>
-    <t>Q_CHP1_demand1</t>
-  </si>
-  <si>
-    <t>Q_CHP1_net1</t>
-  </si>
-  <si>
-    <t>Q_solar_th1_demand1</t>
-  </si>
-  <si>
-    <t>Q_solar_th1_net1</t>
-  </si>
-  <si>
     <t>Q_pvt1_demand1</t>
   </si>
   <si>
     <t>Q_pvt1_net1</t>
+  </si>
+  <si>
+    <t>Q_heat_pump1_demand1</t>
+  </si>
+  <si>
+    <t>Q_heat_pump1_net1</t>
   </si>
 </sst>
 </file>
@@ -410,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,13 +420,10 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -443,13 +434,10 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -460,8 +448,19 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_con_thermal.xlsx
+++ b/output/df_con_thermal.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Q_from_net1</t>
   </si>
   <si>
+    <t>Q_from_solar_th1</t>
+  </si>
+  <si>
     <t>Q_from_pvt1</t>
   </si>
   <si>
@@ -35,6 +38,12 @@
   </si>
   <si>
     <t>Q_net1_demand1</t>
+  </si>
+  <si>
+    <t>Q_solar_th1_demand1</t>
+  </si>
+  <si>
+    <t>Q_solar_th1_net1</t>
   </si>
   <si>
     <t>Q_pvt1_demand1</t>
@@ -404,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,39 +429,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B4">
         <v>0</v>
       </c>
@@ -460,6 +478,9 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
     </row>

--- a/output/df_con_thermal.xlsx
+++ b/output/df_con_thermal.xlsx
@@ -14,18 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Q_from_net1</t>
-  </si>
-  <si>
-    <t>Q_from_solar_th1</t>
-  </si>
-  <si>
-    <t>Q_from_pvt1</t>
-  </si>
-  <si>
-    <t>Q_from_heat_pump1</t>
   </si>
   <si>
     <t>Q_to_demand1</t>
@@ -34,28 +25,7 @@
     <t>Q_to_net1</t>
   </si>
   <si>
-    <t>Q_to_heat_pump1</t>
-  </si>
-  <si>
     <t>Q_net1_demand1</t>
-  </si>
-  <si>
-    <t>Q_solar_th1_demand1</t>
-  </si>
-  <si>
-    <t>Q_solar_th1_net1</t>
-  </si>
-  <si>
-    <t>Q_pvt1_demand1</t>
-  </si>
-  <si>
-    <t>Q_pvt1_net1</t>
-  </si>
-  <si>
-    <t>Q_heat_pump1_demand1</t>
-  </si>
-  <si>
-    <t>Q_heat_pump1_net1</t>
   </si>
 </sst>
 </file>
@@ -413,74 +383,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
         <v>0</v>
       </c>
     </row>

--- a/output/df_con_thermal.xlsx
+++ b/output/df_con_thermal.xlsx
@@ -14,18 +14,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Q_from_net1</t>
   </si>
   <si>
-    <t>Q_to_demand1</t>
+    <t>Q_from_CHP1</t>
+  </si>
+  <si>
+    <t>Q_from_solar_th1</t>
+  </si>
+  <si>
+    <t>Q_from_pvt1</t>
+  </si>
+  <si>
+    <t>Q_from_heat_pump1</t>
+  </si>
+  <si>
+    <t>param_Q_to_demand1</t>
   </si>
   <si>
     <t>Q_to_net1</t>
   </si>
   <si>
+    <t>Q_to_heat_pump1</t>
+  </si>
+  <si>
     <t>Q_net1_demand1</t>
+  </si>
+  <si>
+    <t>Q_CHP1_demand1</t>
+  </si>
+  <si>
+    <t>Q_CHP1_net1</t>
+  </si>
+  <si>
+    <t>Q_solar_th1_demand1</t>
+  </si>
+  <si>
+    <t>Q_solar_th1_net1</t>
+  </si>
+  <si>
+    <t>Q_pvt1_demand1</t>
+  </si>
+  <si>
+    <t>Q_pvt1_net1</t>
+  </si>
+  <si>
+    <t>Q_heat_pump1_demand1</t>
+  </si>
+  <si>
+    <t>Q_heat_pump1_net1</t>
   </si>
 </sst>
 </file>
@@ -383,30 +422,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
     </row>

--- a/output/df_con_thermal.xlsx
+++ b/output/df_con_thermal.xlsx
@@ -14,21 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Q_from_net1</t>
-  </si>
-  <si>
-    <t>Q_from_CHP1</t>
-  </si>
-  <si>
-    <t>Q_from_solar_th1</t>
-  </si>
-  <si>
-    <t>Q_from_pvt1</t>
-  </si>
-  <si>
-    <t>Q_from_heat_pump1</t>
   </si>
   <si>
     <t>param_Q_to_demand1</t>
@@ -37,34 +25,7 @@
     <t>Q_to_net1</t>
   </si>
   <si>
-    <t>Q_to_heat_pump1</t>
-  </si>
-  <si>
     <t>Q_net1_demand1</t>
-  </si>
-  <si>
-    <t>Q_CHP1_demand1</t>
-  </si>
-  <si>
-    <t>Q_CHP1_net1</t>
-  </si>
-  <si>
-    <t>Q_solar_th1_demand1</t>
-  </si>
-  <si>
-    <t>Q_solar_th1_net1</t>
-  </si>
-  <si>
-    <t>Q_pvt1_demand1</t>
-  </si>
-  <si>
-    <t>Q_pvt1_net1</t>
-  </si>
-  <si>
-    <t>Q_heat_pump1_demand1</t>
-  </si>
-  <si>
-    <t>Q_heat_pump1_net1</t>
   </si>
 </sst>
 </file>
@@ -422,86 +383,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
         <v>0</v>
       </c>
     </row>

--- a/output/df_con_thermal.xlsx
+++ b/output/df_con_thermal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Q_from_net1</t>
   </si>
@@ -22,10 +22,16 @@
     <t>param_Q_to_demand1</t>
   </si>
   <si>
+    <t>param_Q_to_demand2</t>
+  </si>
+  <si>
     <t>Q_to_net1</t>
   </si>
   <si>
     <t>Q_net1_demand1</t>
+  </si>
+  <si>
+    <t>Q_net1_demand2</t>
   </si>
 </sst>
 </file>
@@ -383,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,14 +405,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
     </row>

--- a/output/df_con_thermal.xlsx
+++ b/output/df_con_thermal.xlsx
@@ -14,11 +14,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Q_from_net1</t>
   </si>
   <si>
+    <t>Q_from_net2</t>
+  </si>
+  <si>
+    <t>Q_from_CHP1</t>
+  </si>
+  <si>
+    <t>Q_from_CHP2</t>
+  </si>
+  <si>
+    <t>Q_from_solar_th1</t>
+  </si>
+  <si>
+    <t>Q_from_solar_th2</t>
+  </si>
+  <si>
+    <t>Q_from_pvt1</t>
+  </si>
+  <si>
+    <t>Q_from_pvt2</t>
+  </si>
+  <si>
+    <t>Q_from_heat_pump1</t>
+  </si>
+  <si>
+    <t>Q_from_heat_pump2</t>
+  </si>
+  <si>
     <t>param_Q_to_demand1</t>
   </si>
   <si>
@@ -28,10 +55,121 @@
     <t>Q_to_net1</t>
   </si>
   <si>
+    <t>Q_to_net2</t>
+  </si>
+  <si>
+    <t>Q_to_heat_pump1</t>
+  </si>
+  <si>
+    <t>Q_to_heat_pump2</t>
+  </si>
+  <si>
     <t>Q_net1_demand1</t>
   </si>
   <si>
     <t>Q_net1_demand2</t>
+  </si>
+  <si>
+    <t>Q_net2_demand1</t>
+  </si>
+  <si>
+    <t>Q_net2_demand2</t>
+  </si>
+  <si>
+    <t>Q_CHP1_demand1</t>
+  </si>
+  <si>
+    <t>Q_CHP1_demand2</t>
+  </si>
+  <si>
+    <t>Q_CHP1_net1</t>
+  </si>
+  <si>
+    <t>Q_CHP1_net2</t>
+  </si>
+  <si>
+    <t>Q_CHP2_demand1</t>
+  </si>
+  <si>
+    <t>Q_CHP2_demand2</t>
+  </si>
+  <si>
+    <t>Q_CHP2_net1</t>
+  </si>
+  <si>
+    <t>Q_CHP2_net2</t>
+  </si>
+  <si>
+    <t>Q_solar_th1_demand1</t>
+  </si>
+  <si>
+    <t>Q_solar_th1_demand2</t>
+  </si>
+  <si>
+    <t>Q_solar_th1_net1</t>
+  </si>
+  <si>
+    <t>Q_solar_th1_net2</t>
+  </si>
+  <si>
+    <t>Q_solar_th2_demand1</t>
+  </si>
+  <si>
+    <t>Q_solar_th2_demand2</t>
+  </si>
+  <si>
+    <t>Q_solar_th2_net1</t>
+  </si>
+  <si>
+    <t>Q_solar_th2_net2</t>
+  </si>
+  <si>
+    <t>Q_pvt1_demand1</t>
+  </si>
+  <si>
+    <t>Q_pvt1_demand2</t>
+  </si>
+  <si>
+    <t>Q_pvt1_net1</t>
+  </si>
+  <si>
+    <t>Q_pvt1_net2</t>
+  </si>
+  <si>
+    <t>Q_pvt2_demand1</t>
+  </si>
+  <si>
+    <t>Q_pvt2_demand2</t>
+  </si>
+  <si>
+    <t>Q_pvt2_net1</t>
+  </si>
+  <si>
+    <t>Q_pvt2_net2</t>
+  </si>
+  <si>
+    <t>Q_heat_pump1_demand1</t>
+  </si>
+  <si>
+    <t>Q_heat_pump1_demand2</t>
+  </si>
+  <si>
+    <t>Q_heat_pump1_net1</t>
+  </si>
+  <si>
+    <t>Q_heat_pump1_net2</t>
+  </si>
+  <si>
+    <t>Q_heat_pump2_demand1</t>
+  </si>
+  <si>
+    <t>Q_heat_pump2_demand2</t>
+  </si>
+  <si>
+    <t>Q_heat_pump2_net1</t>
+  </si>
+  <si>
+    <t>Q_heat_pump2_net2</t>
   </si>
 </sst>
 </file>
@@ -389,38 +527,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>0</v>
       </c>
     </row>

--- a/output/df_con_thermal.xlsx
+++ b/output/df_con_thermal.xlsx
@@ -14,162 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Q_from_net1</t>
-  </si>
-  <si>
-    <t>Q_from_net2</t>
-  </si>
-  <si>
-    <t>Q_from_CHP1</t>
-  </si>
-  <si>
-    <t>Q_from_CHP2</t>
-  </si>
-  <si>
-    <t>Q_from_solar_th1</t>
-  </si>
-  <si>
-    <t>Q_from_solar_th2</t>
-  </si>
-  <si>
-    <t>Q_from_pvt1</t>
-  </si>
-  <si>
-    <t>Q_from_pvt2</t>
-  </si>
-  <si>
-    <t>Q_from_heat_pump1</t>
-  </si>
-  <si>
-    <t>Q_from_heat_pump2</t>
   </si>
   <si>
     <t>param_Q_to_demand1</t>
   </si>
   <si>
-    <t>param_Q_to_demand2</t>
-  </si>
-  <si>
     <t>Q_to_net1</t>
   </si>
   <si>
-    <t>Q_to_net2</t>
-  </si>
-  <si>
-    <t>Q_to_heat_pump1</t>
-  </si>
-  <si>
-    <t>Q_to_heat_pump2</t>
-  </si>
-  <si>
     <t>Q_net1_demand1</t>
-  </si>
-  <si>
-    <t>Q_net1_demand2</t>
-  </si>
-  <si>
-    <t>Q_net2_demand1</t>
-  </si>
-  <si>
-    <t>Q_net2_demand2</t>
-  </si>
-  <si>
-    <t>Q_CHP1_demand1</t>
-  </si>
-  <si>
-    <t>Q_CHP1_demand2</t>
-  </si>
-  <si>
-    <t>Q_CHP1_net1</t>
-  </si>
-  <si>
-    <t>Q_CHP1_net2</t>
-  </si>
-  <si>
-    <t>Q_CHP2_demand1</t>
-  </si>
-  <si>
-    <t>Q_CHP2_demand2</t>
-  </si>
-  <si>
-    <t>Q_CHP2_net1</t>
-  </si>
-  <si>
-    <t>Q_CHP2_net2</t>
-  </si>
-  <si>
-    <t>Q_solar_th1_demand1</t>
-  </si>
-  <si>
-    <t>Q_solar_th1_demand2</t>
-  </si>
-  <si>
-    <t>Q_solar_th1_net1</t>
-  </si>
-  <si>
-    <t>Q_solar_th1_net2</t>
-  </si>
-  <si>
-    <t>Q_solar_th2_demand1</t>
-  </si>
-  <si>
-    <t>Q_solar_th2_demand2</t>
-  </si>
-  <si>
-    <t>Q_solar_th2_net1</t>
-  </si>
-  <si>
-    <t>Q_solar_th2_net2</t>
-  </si>
-  <si>
-    <t>Q_pvt1_demand1</t>
-  </si>
-  <si>
-    <t>Q_pvt1_demand2</t>
-  </si>
-  <si>
-    <t>Q_pvt1_net1</t>
-  </si>
-  <si>
-    <t>Q_pvt1_net2</t>
-  </si>
-  <si>
-    <t>Q_pvt2_demand1</t>
-  </si>
-  <si>
-    <t>Q_pvt2_demand2</t>
-  </si>
-  <si>
-    <t>Q_pvt2_net1</t>
-  </si>
-  <si>
-    <t>Q_pvt2_net2</t>
-  </si>
-  <si>
-    <t>Q_heat_pump1_demand1</t>
-  </si>
-  <si>
-    <t>Q_heat_pump1_demand2</t>
-  </si>
-  <si>
-    <t>Q_heat_pump1_net1</t>
-  </si>
-  <si>
-    <t>Q_heat_pump1_net2</t>
-  </si>
-  <si>
-    <t>Q_heat_pump2_demand1</t>
-  </si>
-  <si>
-    <t>Q_heat_pump2_demand2</t>
-  </si>
-  <si>
-    <t>Q_heat_pump2_net1</t>
-  </si>
-  <si>
-    <t>Q_heat_pump2_net2</t>
   </si>
 </sst>
 </file>
@@ -527,251 +383,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
+      <c r="B3">
         <v>0</v>
       </c>
     </row>

--- a/output/df_con_thermal.xlsx
+++ b/output/df_con_thermal.xlsx
@@ -14,18 +14,162 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Q_from_net1</t>
   </si>
   <si>
+    <t>Q_from_net2</t>
+  </si>
+  <si>
+    <t>Q_from_CHP1</t>
+  </si>
+  <si>
+    <t>Q_from_CHP2</t>
+  </si>
+  <si>
+    <t>Q_from_solar_th1</t>
+  </si>
+  <si>
+    <t>Q_from_solar_th2</t>
+  </si>
+  <si>
+    <t>Q_from_pvt1</t>
+  </si>
+  <si>
+    <t>Q_from_pvt2</t>
+  </si>
+  <si>
+    <t>Q_from_heat_pump1</t>
+  </si>
+  <si>
+    <t>Q_from_heat_pump2</t>
+  </si>
+  <si>
     <t>param_Q_to_demand1</t>
   </si>
   <si>
+    <t>param_Q_to_demand2</t>
+  </si>
+  <si>
     <t>Q_to_net1</t>
   </si>
   <si>
+    <t>Q_to_net2</t>
+  </si>
+  <si>
+    <t>Q_to_heat_pump1</t>
+  </si>
+  <si>
+    <t>Q_to_heat_pump2</t>
+  </si>
+  <si>
     <t>Q_net1_demand1</t>
+  </si>
+  <si>
+    <t>Q_net1_demand2</t>
+  </si>
+  <si>
+    <t>Q_net2_demand1</t>
+  </si>
+  <si>
+    <t>Q_net2_demand2</t>
+  </si>
+  <si>
+    <t>Q_CHP1_demand1</t>
+  </si>
+  <si>
+    <t>Q_CHP1_demand2</t>
+  </si>
+  <si>
+    <t>Q_CHP1_net1</t>
+  </si>
+  <si>
+    <t>Q_CHP1_net2</t>
+  </si>
+  <si>
+    <t>Q_CHP2_demand1</t>
+  </si>
+  <si>
+    <t>Q_CHP2_demand2</t>
+  </si>
+  <si>
+    <t>Q_CHP2_net1</t>
+  </si>
+  <si>
+    <t>Q_CHP2_net2</t>
+  </si>
+  <si>
+    <t>Q_solar_th1_demand1</t>
+  </si>
+  <si>
+    <t>Q_solar_th1_demand2</t>
+  </si>
+  <si>
+    <t>Q_solar_th1_net1</t>
+  </si>
+  <si>
+    <t>Q_solar_th1_net2</t>
+  </si>
+  <si>
+    <t>Q_solar_th2_demand1</t>
+  </si>
+  <si>
+    <t>Q_solar_th2_demand2</t>
+  </si>
+  <si>
+    <t>Q_solar_th2_net1</t>
+  </si>
+  <si>
+    <t>Q_solar_th2_net2</t>
+  </si>
+  <si>
+    <t>Q_pvt1_demand1</t>
+  </si>
+  <si>
+    <t>Q_pvt1_demand2</t>
+  </si>
+  <si>
+    <t>Q_pvt1_net1</t>
+  </si>
+  <si>
+    <t>Q_pvt1_net2</t>
+  </si>
+  <si>
+    <t>Q_pvt2_demand1</t>
+  </si>
+  <si>
+    <t>Q_pvt2_demand2</t>
+  </si>
+  <si>
+    <t>Q_pvt2_net1</t>
+  </si>
+  <si>
+    <t>Q_pvt2_net2</t>
+  </si>
+  <si>
+    <t>Q_heat_pump1_demand1</t>
+  </si>
+  <si>
+    <t>Q_heat_pump1_demand2</t>
+  </si>
+  <si>
+    <t>Q_heat_pump1_net1</t>
+  </si>
+  <si>
+    <t>Q_heat_pump1_net2</t>
+  </si>
+  <si>
+    <t>Q_heat_pump2_demand1</t>
+  </si>
+  <si>
+    <t>Q_heat_pump2_demand2</t>
+  </si>
+  <si>
+    <t>Q_heat_pump2_net1</t>
+  </si>
+  <si>
+    <t>Q_heat_pump2_net2</t>
   </si>
 </sst>
 </file>
@@ -383,30 +527,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>0</v>
       </c>
     </row>

--- a/output/df_con_thermal.xlsx
+++ b/output/df_con_thermal.xlsx
@@ -14,18 +14,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Q_from_net1</t>
   </si>
   <si>
+    <t>Q_from_CHP1</t>
+  </si>
+  <si>
+    <t>Q_from_solar_th1</t>
+  </si>
+  <si>
+    <t>Q_from_pvt1</t>
+  </si>
+  <si>
+    <t>Q_from_heat_pump1</t>
+  </si>
+  <si>
     <t>param_Q_to_demand1</t>
   </si>
   <si>
     <t>Q_to_net1</t>
   </si>
   <si>
+    <t>Q_to_heat_pump1</t>
+  </si>
+  <si>
     <t>Q_net1_demand1</t>
+  </si>
+  <si>
+    <t>Q_CHP1_demand1</t>
+  </si>
+  <si>
+    <t>Q_CHP1_net1</t>
+  </si>
+  <si>
+    <t>Q_solar_th1_demand1</t>
+  </si>
+  <si>
+    <t>Q_solar_th1_net1</t>
+  </si>
+  <si>
+    <t>Q_pvt1_demand1</t>
+  </si>
+  <si>
+    <t>Q_pvt1_net1</t>
+  </si>
+  <si>
+    <t>Q_heat_pump1_demand1</t>
+  </si>
+  <si>
+    <t>Q_heat_pump1_net1</t>
   </si>
 </sst>
 </file>
@@ -383,30 +422,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
     </row>

--- a/output/df_con_thermal.xlsx
+++ b/output/df_con_thermal.xlsx
@@ -14,18 +14,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Q_from_net1</t>
   </si>
   <si>
+    <t>Q_from_net2</t>
+  </si>
+  <si>
+    <t>Q_from_CHP1</t>
+  </si>
+  <si>
+    <t>Q_from_CHP2</t>
+  </si>
+  <si>
+    <t>Q_from_solar_th1</t>
+  </si>
+  <si>
+    <t>Q_from_solar_th2</t>
+  </si>
+  <si>
+    <t>Q_from_pvt1</t>
+  </si>
+  <si>
+    <t>Q_from_pvt2</t>
+  </si>
+  <si>
+    <t>Q_from_heat_pump1</t>
+  </si>
+  <si>
+    <t>Q_from_heat_pump2</t>
+  </si>
+  <si>
     <t>param_Q_to_demand1</t>
   </si>
   <si>
+    <t>param_Q_to_demand2</t>
+  </si>
+  <si>
     <t>Q_to_net1</t>
   </si>
   <si>
+    <t>Q_to_net2</t>
+  </si>
+  <si>
     <t>Q_net1_demand1</t>
+  </si>
+  <si>
+    <t>Q_net1_demand2</t>
+  </si>
+  <si>
+    <t>Q_net2_demand1</t>
+  </si>
+  <si>
+    <t>Q_net2_demand2</t>
+  </si>
+  <si>
+    <t>Q_CHP1_demand1</t>
+  </si>
+  <si>
+    <t>Q_CHP1_demand2</t>
+  </si>
+  <si>
+    <t>Q_CHP1_net1</t>
+  </si>
+  <si>
+    <t>Q_CHP1_net2</t>
+  </si>
+  <si>
+    <t>Q_CHP2_demand1</t>
+  </si>
+  <si>
+    <t>Q_CHP2_demand2</t>
+  </si>
+  <si>
+    <t>Q_CHP2_net1</t>
+  </si>
+  <si>
+    <t>Q_CHP2_net2</t>
+  </si>
+  <si>
+    <t>Q_solar_th1_demand1</t>
+  </si>
+  <si>
+    <t>Q_solar_th1_demand2</t>
+  </si>
+  <si>
+    <t>Q_solar_th1_net1</t>
+  </si>
+  <si>
+    <t>Q_solar_th1_net2</t>
+  </si>
+  <si>
+    <t>Q_solar_th2_demand1</t>
+  </si>
+  <si>
+    <t>Q_solar_th2_demand2</t>
+  </si>
+  <si>
+    <t>Q_solar_th2_net1</t>
+  </si>
+  <si>
+    <t>Q_solar_th2_net2</t>
+  </si>
+  <si>
+    <t>Q_pvt1_demand1</t>
+  </si>
+  <si>
+    <t>Q_pvt1_demand2</t>
+  </si>
+  <si>
+    <t>Q_pvt1_net1</t>
+  </si>
+  <si>
+    <t>Q_pvt1_net2</t>
+  </si>
+  <si>
+    <t>Q_pvt2_demand1</t>
+  </si>
+  <si>
+    <t>Q_pvt2_demand2</t>
+  </si>
+  <si>
+    <t>Q_pvt2_net1</t>
+  </si>
+  <si>
+    <t>Q_pvt2_net2</t>
+  </si>
+  <si>
+    <t>Q_heat_pump1_demand1</t>
+  </si>
+  <si>
+    <t>Q_heat_pump1_demand2</t>
+  </si>
+  <si>
+    <t>Q_heat_pump1_net1</t>
+  </si>
+  <si>
+    <t>Q_heat_pump1_net2</t>
+  </si>
+  <si>
+    <t>Q_heat_pump2_demand1</t>
+  </si>
+  <si>
+    <t>Q_heat_pump2_demand2</t>
+  </si>
+  <si>
+    <t>Q_heat_pump2_net1</t>
+  </si>
+  <si>
+    <t>Q_heat_pump2_net2</t>
   </si>
 </sst>
 </file>
@@ -383,31 +521,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
         <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_con_thermal.xlsx
+++ b/output/df_con_thermal.xlsx
@@ -14,156 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
-  <si>
-    <t>Q_from_net1</t>
-  </si>
-  <si>
-    <t>Q_from_net2</t>
-  </si>
-  <si>
-    <t>Q_from_CHP1</t>
-  </si>
-  <si>
-    <t>Q_from_CHP2</t>
-  </si>
-  <si>
-    <t>Q_from_solar_th1</t>
-  </si>
-  <si>
-    <t>Q_from_solar_th2</t>
-  </si>
-  <si>
-    <t>Q_from_pvt1</t>
-  </si>
-  <si>
-    <t>Q_from_pvt2</t>
-  </si>
-  <si>
-    <t>Q_from_heat_pump1</t>
-  </si>
-  <si>
-    <t>Q_from_heat_pump2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>param_Q_to_demand1</t>
-  </si>
-  <si>
-    <t>param_Q_to_demand2</t>
-  </si>
-  <si>
-    <t>Q_to_net1</t>
-  </si>
-  <si>
-    <t>Q_to_net2</t>
-  </si>
-  <si>
-    <t>Q_net1_demand1</t>
-  </si>
-  <si>
-    <t>Q_net1_demand2</t>
-  </si>
-  <si>
-    <t>Q_net2_demand1</t>
-  </si>
-  <si>
-    <t>Q_net2_demand2</t>
-  </si>
-  <si>
-    <t>Q_CHP1_demand1</t>
-  </si>
-  <si>
-    <t>Q_CHP1_demand2</t>
-  </si>
-  <si>
-    <t>Q_CHP1_net1</t>
-  </si>
-  <si>
-    <t>Q_CHP1_net2</t>
-  </si>
-  <si>
-    <t>Q_CHP2_demand1</t>
-  </si>
-  <si>
-    <t>Q_CHP2_demand2</t>
-  </si>
-  <si>
-    <t>Q_CHP2_net1</t>
-  </si>
-  <si>
-    <t>Q_CHP2_net2</t>
-  </si>
-  <si>
-    <t>Q_solar_th1_demand1</t>
-  </si>
-  <si>
-    <t>Q_solar_th1_demand2</t>
-  </si>
-  <si>
-    <t>Q_solar_th1_net1</t>
-  </si>
-  <si>
-    <t>Q_solar_th1_net2</t>
-  </si>
-  <si>
-    <t>Q_solar_th2_demand1</t>
-  </si>
-  <si>
-    <t>Q_solar_th2_demand2</t>
-  </si>
-  <si>
-    <t>Q_solar_th2_net1</t>
-  </si>
-  <si>
-    <t>Q_solar_th2_net2</t>
-  </si>
-  <si>
-    <t>Q_pvt1_demand1</t>
-  </si>
-  <si>
-    <t>Q_pvt1_demand2</t>
-  </si>
-  <si>
-    <t>Q_pvt1_net1</t>
-  </si>
-  <si>
-    <t>Q_pvt1_net2</t>
-  </si>
-  <si>
-    <t>Q_pvt2_demand1</t>
-  </si>
-  <si>
-    <t>Q_pvt2_demand2</t>
-  </si>
-  <si>
-    <t>Q_pvt2_net1</t>
-  </si>
-  <si>
-    <t>Q_pvt2_net2</t>
-  </si>
-  <si>
-    <t>Q_heat_pump1_demand1</t>
-  </si>
-  <si>
-    <t>Q_heat_pump1_demand2</t>
-  </si>
-  <si>
-    <t>Q_heat_pump1_net1</t>
-  </si>
-  <si>
-    <t>Q_heat_pump1_net2</t>
-  </si>
-  <si>
-    <t>Q_heat_pump2_demand1</t>
-  </si>
-  <si>
-    <t>Q_heat_pump2_demand2</t>
-  </si>
-  <si>
-    <t>Q_heat_pump2_net1</t>
-  </si>
-  <si>
-    <t>Q_heat_pump2_net2</t>
   </si>
 </sst>
 </file>
@@ -521,182 +374,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="1" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_con_thermal.xlsx
+++ b/output/df_con_thermal.xlsx
@@ -14,9 +14,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+  <si>
+    <t>Q_from_net1</t>
+  </si>
+  <si>
+    <t>Q_from_net2</t>
+  </si>
+  <si>
+    <t>Q_from_CHP1</t>
+  </si>
+  <si>
+    <t>Q_from_CHP2</t>
+  </si>
+  <si>
+    <t>Q_from_solar_th1</t>
+  </si>
+  <si>
+    <t>Q_from_solar_th2</t>
+  </si>
+  <si>
+    <t>Q_from_pvt1</t>
+  </si>
+  <si>
+    <t>Q_from_pvt2</t>
+  </si>
+  <si>
+    <t>Q_from_heat_pump1</t>
+  </si>
+  <si>
+    <t>Q_from_heat_pump2</t>
+  </si>
   <si>
     <t>param_Q_to_demand1</t>
+  </si>
+  <si>
+    <t>param_Q_to_demand2</t>
+  </si>
+  <si>
+    <t>Q_to_net1</t>
+  </si>
+  <si>
+    <t>Q_to_net2</t>
+  </si>
+  <si>
+    <t>Q_net1_demand1</t>
+  </si>
+  <si>
+    <t>Q_net1_demand2</t>
+  </si>
+  <si>
+    <t>Q_net2_demand1</t>
+  </si>
+  <si>
+    <t>Q_net2_demand2</t>
+  </si>
+  <si>
+    <t>Q_CHP1_demand1</t>
+  </si>
+  <si>
+    <t>Q_CHP1_demand2</t>
+  </si>
+  <si>
+    <t>Q_CHP1_net1</t>
+  </si>
+  <si>
+    <t>Q_CHP1_net2</t>
+  </si>
+  <si>
+    <t>Q_CHP2_demand1</t>
+  </si>
+  <si>
+    <t>Q_CHP2_demand2</t>
+  </si>
+  <si>
+    <t>Q_CHP2_net1</t>
+  </si>
+  <si>
+    <t>Q_CHP2_net2</t>
+  </si>
+  <si>
+    <t>Q_solar_th1_demand1</t>
+  </si>
+  <si>
+    <t>Q_solar_th1_demand2</t>
+  </si>
+  <si>
+    <t>Q_solar_th1_net1</t>
+  </si>
+  <si>
+    <t>Q_solar_th1_net2</t>
+  </si>
+  <si>
+    <t>Q_solar_th2_demand1</t>
+  </si>
+  <si>
+    <t>Q_solar_th2_demand2</t>
+  </si>
+  <si>
+    <t>Q_solar_th2_net1</t>
+  </si>
+  <si>
+    <t>Q_solar_th2_net2</t>
+  </si>
+  <si>
+    <t>Q_pvt1_demand1</t>
+  </si>
+  <si>
+    <t>Q_pvt1_demand2</t>
+  </si>
+  <si>
+    <t>Q_pvt1_net1</t>
+  </si>
+  <si>
+    <t>Q_pvt1_net2</t>
+  </si>
+  <si>
+    <t>Q_pvt2_demand1</t>
+  </si>
+  <si>
+    <t>Q_pvt2_demand2</t>
+  </si>
+  <si>
+    <t>Q_pvt2_net1</t>
+  </si>
+  <si>
+    <t>Q_pvt2_net2</t>
+  </si>
+  <si>
+    <t>Q_heat_pump1_demand1</t>
+  </si>
+  <si>
+    <t>Q_heat_pump1_demand2</t>
+  </si>
+  <si>
+    <t>Q_heat_pump1_net1</t>
+  </si>
+  <si>
+    <t>Q_heat_pump1_net2</t>
+  </si>
+  <si>
+    <t>Q_heat_pump2_demand1</t>
+  </si>
+  <si>
+    <t>Q_heat_pump2_demand2</t>
+  </si>
+  <si>
+    <t>Q_heat_pump2_net1</t>
+  </si>
+  <si>
+    <t>Q_heat_pump2_net2</t>
   </si>
 </sst>
 </file>
@@ -374,15 +521,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
         <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_con_thermal.xlsx
+++ b/output/df_con_thermal.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Q_from_net1</t>
   </si>
   <si>
-    <t>Q_from_net2</t>
-  </si>
-  <si>
     <t>Q_from_CHP1</t>
   </si>
   <si>
@@ -46,124 +43,79 @@
     <t>Q_from_heat_pump2</t>
   </si>
   <si>
+    <t>Q_from_gas_boiler1</t>
+  </si>
+  <si>
+    <t>Q_from_gas_boiler2</t>
+  </si>
+  <si>
     <t>param_Q_to_demand1</t>
   </si>
   <si>
-    <t>param_Q_to_demand2</t>
-  </si>
-  <si>
     <t>Q_to_net1</t>
   </si>
   <si>
-    <t>Q_to_net2</t>
-  </si>
-  <si>
     <t>Q_net1_demand1</t>
   </si>
   <si>
-    <t>Q_net1_demand2</t>
-  </si>
-  <si>
-    <t>Q_net2_demand1</t>
-  </si>
-  <si>
-    <t>Q_net2_demand2</t>
-  </si>
-  <si>
     <t>Q_CHP1_demand1</t>
   </si>
   <si>
-    <t>Q_CHP1_demand2</t>
-  </si>
-  <si>
     <t>Q_CHP1_net1</t>
   </si>
   <si>
-    <t>Q_CHP1_net2</t>
-  </si>
-  <si>
     <t>Q_CHP2_demand1</t>
   </si>
   <si>
-    <t>Q_CHP2_demand2</t>
-  </si>
-  <si>
     <t>Q_CHP2_net1</t>
   </si>
   <si>
-    <t>Q_CHP2_net2</t>
-  </si>
-  <si>
     <t>Q_solar_th1_demand1</t>
   </si>
   <si>
-    <t>Q_solar_th1_demand2</t>
-  </si>
-  <si>
     <t>Q_solar_th1_net1</t>
   </si>
   <si>
-    <t>Q_solar_th1_net2</t>
-  </si>
-  <si>
     <t>Q_solar_th2_demand1</t>
   </si>
   <si>
-    <t>Q_solar_th2_demand2</t>
-  </si>
-  <si>
     <t>Q_solar_th2_net1</t>
   </si>
   <si>
-    <t>Q_solar_th2_net2</t>
-  </si>
-  <si>
     <t>Q_pvt1_demand1</t>
   </si>
   <si>
-    <t>Q_pvt1_demand2</t>
-  </si>
-  <si>
     <t>Q_pvt1_net1</t>
   </si>
   <si>
-    <t>Q_pvt1_net2</t>
-  </si>
-  <si>
     <t>Q_pvt2_demand1</t>
   </si>
   <si>
-    <t>Q_pvt2_demand2</t>
-  </si>
-  <si>
     <t>Q_pvt2_net1</t>
   </si>
   <si>
-    <t>Q_pvt2_net2</t>
-  </si>
-  <si>
     <t>Q_heat_pump1_demand1</t>
   </si>
   <si>
-    <t>Q_heat_pump1_demand2</t>
-  </si>
-  <si>
     <t>Q_heat_pump1_net1</t>
   </si>
   <si>
-    <t>Q_heat_pump1_net2</t>
-  </si>
-  <si>
     <t>Q_heat_pump2_demand1</t>
   </si>
   <si>
-    <t>Q_heat_pump2_demand2</t>
-  </si>
-  <si>
     <t>Q_heat_pump2_net1</t>
   </si>
   <si>
-    <t>Q_heat_pump2_net2</t>
+    <t>Q_gas_boiler1_demand1</t>
+  </si>
+  <si>
+    <t>Q_gas_boiler1_net1</t>
+  </si>
+  <si>
+    <t>Q_gas_boiler2_demand1</t>
+  </si>
+  <si>
+    <t>Q_gas_boiler2_net1</t>
   </si>
 </sst>
 </file>
@@ -521,13 +473,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,145 +510,84 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
+      <c r="L2" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="L3" t="s">
         <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_con_thermal.xlsx
+++ b/output/df_con_thermal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Q_from_net1</t>
   </si>
@@ -22,33 +22,18 @@
     <t>Q_from_CHP1</t>
   </si>
   <si>
-    <t>Q_from_CHP2</t>
-  </si>
-  <si>
     <t>Q_from_solar_th1</t>
   </si>
   <si>
-    <t>Q_from_solar_th2</t>
-  </si>
-  <si>
     <t>Q_from_pvt1</t>
   </si>
   <si>
-    <t>Q_from_pvt2</t>
-  </si>
-  <si>
     <t>Q_from_heat_pump1</t>
   </si>
   <si>
-    <t>Q_from_heat_pump2</t>
-  </si>
-  <si>
     <t>Q_from_gas_boiler1</t>
   </si>
   <si>
-    <t>Q_from_gas_boiler2</t>
-  </si>
-  <si>
     <t>param_Q_to_demand1</t>
   </si>
   <si>
@@ -64,58 +49,28 @@
     <t>Q_CHP1_net1</t>
   </si>
   <si>
-    <t>Q_CHP2_demand1</t>
-  </si>
-  <si>
-    <t>Q_CHP2_net1</t>
-  </si>
-  <si>
     <t>Q_solar_th1_demand1</t>
   </si>
   <si>
     <t>Q_solar_th1_net1</t>
   </si>
   <si>
-    <t>Q_solar_th2_demand1</t>
-  </si>
-  <si>
-    <t>Q_solar_th2_net1</t>
-  </si>
-  <si>
     <t>Q_pvt1_demand1</t>
   </si>
   <si>
     <t>Q_pvt1_net1</t>
   </si>
   <si>
-    <t>Q_pvt2_demand1</t>
-  </si>
-  <si>
-    <t>Q_pvt2_net1</t>
-  </si>
-  <si>
     <t>Q_heat_pump1_demand1</t>
   </si>
   <si>
     <t>Q_heat_pump1_net1</t>
   </si>
   <si>
-    <t>Q_heat_pump2_demand1</t>
-  </si>
-  <si>
-    <t>Q_heat_pump2_net1</t>
-  </si>
-  <si>
     <t>Q_gas_boiler1_demand1</t>
   </si>
   <si>
     <t>Q_gas_boiler1_net1</t>
-  </si>
-  <si>
-    <t>Q_gas_boiler2_demand1</t>
-  </si>
-  <si>
-    <t>Q_gas_boiler2_net1</t>
   </si>
 </sst>
 </file>
@@ -473,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,96 +453,51 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_con_thermal.xlsx
+++ b/output/df_con_thermal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Q_from_net1</t>
   </si>
@@ -22,18 +22,9 @@
     <t>Q_from_CHP1</t>
   </si>
   <si>
-    <t>Q_from_solar_th1</t>
-  </si>
-  <si>
-    <t>Q_from_pvt1</t>
-  </si>
-  <si>
     <t>Q_from_heat_pump1</t>
   </si>
   <si>
-    <t>Q_from_gas_boiler1</t>
-  </si>
-  <si>
     <t>param_Q_to_demand1</t>
   </si>
   <si>
@@ -49,28 +40,10 @@
     <t>Q_CHP1_net1</t>
   </si>
   <si>
-    <t>Q_solar_th1_demand1</t>
-  </si>
-  <si>
-    <t>Q_solar_th1_net1</t>
-  </si>
-  <si>
-    <t>Q_pvt1_demand1</t>
-  </si>
-  <si>
-    <t>Q_pvt1_net1</t>
-  </si>
-  <si>
     <t>Q_heat_pump1_demand1</t>
   </si>
   <si>
     <t>Q_heat_pump1_net1</t>
-  </si>
-  <si>
-    <t>Q_gas_boiler1_demand1</t>
-  </si>
-  <si>
-    <t>Q_gas_boiler1_net1</t>
   </si>
 </sst>
 </file>
@@ -428,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,60 +417,33 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
